--- a/trunk/SEP/Database/Test Coverage 100 Percent 1.xlsx
+++ b/trunk/SEP/Database/Test Coverage 100 Percent 1.xlsx
@@ -129,18 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +492,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -522,7 +518,7 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -548,7 +544,7 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -563,26 +559,6 @@
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
